--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e894b897810989d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e894b897810989d/Documents/GitHub/Agile-project/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E0DE6DC-793E-4CD0-8B0C-3626343A30AA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6D14-199F-4342-A1D2-63979197177E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e894b897810989d/Documents/GitHub/Agile-project/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E0DE6DC-793E-4CD0-8B0C-3626343A30AA}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53E58AA2-8144-4216-A70C-6BBB95DA6675}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6D14-199F-4342-A1D2-63979197177E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>

--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e894b897810989d/Documents/GitHub/Agile-project/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53E58AA2-8144-4216-A70C-6BBB95DA6675}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{77489B66-472D-449A-8DE1-7EABDC2A2167}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6D14-199F-4342-A1D2-63979197177E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>

--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e894b897810989d/Documents/GitHub/Agile-project/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{77489B66-472D-449A-8DE1-7EABDC2A2167}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BB6158CA-1421-4CDB-A0F7-71A1E768FE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7370240F-5368-46FA-A708-D45AE790FFEB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6386198-6D89-4192-A567-B62BD1BDC23C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>User Stories</t>
   </si>
@@ -93,9 +93,6 @@
     <t>As a user, I will be able to sign up so that I can log in and use the website</t>
   </si>
   <si>
-    <t xml:space="preserve">As a participant, I should be shown my answers to a survey after completing it </t>
-  </si>
-  <si>
     <t xml:space="preserve">As a researcher, I should be able to keep track of which users have completed which questionnaires so that I can invite them to complete another in the future </t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>As a participant, I should be shown my answers to a survey after completing it so that I can check my answers.</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -525,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6D14-199F-4342-A1D2-63979197177E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -544,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -575,30 +578,33 @@
     </row>
     <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -612,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -646,13 +652,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -660,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,13 +680,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,13 +694,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -736,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -753,10 +759,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,13 +784,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -792,13 +798,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,10 +815,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -826,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -843,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -860,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -871,16 +877,16 @@
     </row>
     <row r="22" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
